--- a/Ex4/BRTT result spreadsheet.xlsx
+++ b/Ex4/BRTT result spreadsheet.xlsx
@@ -308,7 +308,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -398,64 +398,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,10 +467,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>999</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -574,64 +574,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,64 +750,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -819,16 +819,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>994</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -887,11 +887,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="96416603"/>
-        <c:axId val="11237565"/>
+        <c:axId val="45413341"/>
+        <c:axId val="36172817"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96416603"/>
+        <c:axId val="45413341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,14 +965,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11237565"/>
+        <c:crossAx val="36172817"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11237565"/>
+        <c:axId val="36172817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96416603"/>
+        <c:crossAx val="45413341"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1093,7 +1093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1183,64 +1183,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,10 +1252,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>979</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1359,64 +1359,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,64 +1535,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1672,11 +1672,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="70193967"/>
-        <c:axId val="11417375"/>
+        <c:axId val="73992986"/>
+        <c:axId val="20092613"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70193967"/>
+        <c:axId val="73992986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,14 +1750,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11417375"/>
+        <c:crossAx val="20092613"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11417375"/>
+        <c:axId val="20092613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1841,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70193967"/>
+        <c:crossAx val="73992986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1878,7 +1878,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1968,64 +1968,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2037,67 +2037,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,64 +2144,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2213,67 +2213,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,64 +2320,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2389,67 +2389,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,11 +2457,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="97867343"/>
-        <c:axId val="16847358"/>
+        <c:axId val="27864978"/>
+        <c:axId val="1434184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97867343"/>
+        <c:axId val="27864978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,14 +2535,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16847358"/>
+        <c:crossAx val="1434184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16847358"/>
+        <c:axId val="1434184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2626,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97867343"/>
+        <c:crossAx val="27864978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2663,7 +2663,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2753,64 +2753,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2822,67 +2822,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,64 +2929,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2998,67 +2998,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,64 +3105,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3174,67 +3174,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,11 +3242,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="31838784"/>
-        <c:axId val="24801824"/>
+        <c:axId val="78225839"/>
+        <c:axId val="20756876"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31838784"/>
+        <c:axId val="78225839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,14 +3320,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24801824"/>
+        <c:crossAx val="20756876"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24801824"/>
+        <c:axId val="20756876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31838784"/>
+        <c:crossAx val="78225839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3448,7 +3448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3538,64 +3538,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3714,64 +3714,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3890,64 +3890,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4027,11 +4027,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="46882114"/>
-        <c:axId val="13327540"/>
+        <c:axId val="43463652"/>
+        <c:axId val="94732869"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46882114"/>
+        <c:axId val="43463652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,14 +4105,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13327540"/>
+        <c:crossAx val="94732869"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13327540"/>
+        <c:axId val="94732869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4196,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46882114"/>
+        <c:crossAx val="43463652"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4233,7 +4233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4323,64 +4323,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4499,64 +4499,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4675,64 +4675,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4812,11 +4812,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="37010146"/>
-        <c:axId val="68836668"/>
+        <c:axId val="73360566"/>
+        <c:axId val="96519577"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37010146"/>
+        <c:axId val="73360566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4890,14 +4890,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68836668"/>
+        <c:crossAx val="96519577"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68836668"/>
+        <c:axId val="96519577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4981,7 +4981,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37010146"/>
+        <c:crossAx val="73360566"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5018,7 +5018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5069,64 +5069,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5138,16 +5138,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2993</c:v>
+                  <c:v>2998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5245,64 +5245,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5314,10 +5314,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2979</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5421,64 +5421,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5490,67 +5490,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>143</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>170</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>164</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,64 +5597,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5666,67 +5666,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>143</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,64 +5773,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5949,64 +5949,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1750</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2250</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2750</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4250</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4750</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6086,11 +6086,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="60240037"/>
-        <c:axId val="32507235"/>
+        <c:axId val="85981903"/>
+        <c:axId val="63708174"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60240037"/>
+        <c:axId val="85981903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,14 +6126,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32507235"/>
+        <c:crossAx val="63708174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32507235"/>
+        <c:axId val="63708174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60240037"/>
+        <c:crossAx val="85981903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -57230,7 +57230,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false" t="array" ref="E10:E30">FREQUENCY(Input!F13:F1012,Calculations!$B$10:$B$30)</f>
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false" t="array" ref="F10:F30">FREQUENCY(Input!G13:G1012,Calculations!$B$10:$B$30)</f>
@@ -57238,15 +57238,15 @@
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false" t="array" ref="G10:G30">FREQUENCY(Input!H13:H1012,Calculations!$B$10:$B$30)</f>
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">E10+F10+G10</f>
-        <v>2993</v>
+        <v>2998</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false" t="array" ref="J10:J30">FREQUENCY(Input!K13:K1012,Calculations!$B$10:$B$30)</f>
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false" t="array" ref="K10:K30">FREQUENCY(Input!L13:L1012,Calculations!$B$10:$B$30)</f>
@@ -57258,39 +57258,39 @@
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">J10+K10+L10</f>
-        <v>2979</v>
+        <v>3000</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false" t="array" ref="O10:O30">FREQUENCY(Input!P13:P1012,Calculations!$B$10:$B$30)</f>
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false" t="array" ref="P10:P30">FREQUENCY(Input!Q13:Q1012,Calculations!$B$10:$B$30)</f>
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false" t="array" ref="Q10:Q30">FREQUENCY(Input!R13:R1012,Calculations!$B$10:$B$30)</f>
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">O10+P10+Q10</f>
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false" t="array" ref="T10:T30">FREQUENCY(Input!U13:U1012,Calculations!$B$10:$B$30)</f>
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false" t="array" ref="U10:U30">FREQUENCY(Input!V13:V1012,Calculations!$B$10:$B$30)</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false" t="array" ref="V10:V30">FREQUENCY(Input!W13:W1012,Calculations!$B$10:$B$30)</f>
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="false">T10+U10+V10</f>
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="Y10" s="0" t="e">
         <f aca="false" t="array" ref="Y10:Y30">FREQUENCY(Input!Z13:Z1012,Calculations!$B$10:$B$30)</f>
@@ -57331,27 +57331,27 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">A11*Graphs!$D$2</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">B11</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">E11+F11+G11</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -57361,33 +57361,33 @@
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">J11+K11+L11</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R11" s="0" t="n">
         <f aca="false">O11+P11+Q11</f>
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="W11" s="0" t="n">
         <f aca="false">T11+U11+V11</f>
-        <v>160</v>
+        <v>337</v>
       </c>
       <c r="Y11" s="0" t="e">
         <v>#VALUE!</v>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">A12*Graphs!$D$2</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">B12</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -57455,30 +57455,30 @@
         <v>0</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">O12+P12+Q12</f>
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">T12+U12+V12</f>
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="Y12" s="0" t="e">
         <v>#VALUE!</v>
@@ -57513,11 +57513,11 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">A13*Graphs!$D$2</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">B13</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -57526,11 +57526,11 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">E13+F13+G13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -57546,30 +57546,30 @@
         <v>0</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">O13+P13+Q13</f>
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="false">T13+U13+V13</f>
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="Y13" s="0" t="e">
         <v>#VALUE!</v>
@@ -57604,11 +57604,11 @@
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">A14*Graphs!$D$2</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">B14</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -57637,30 +57637,30 @@
         <v>0</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">O14+P14+Q14</f>
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="false">T14+U14+V14</f>
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="Y14" s="0" t="e">
         <v>#VALUE!</v>
@@ -57695,11 +57695,11 @@
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">A15*Graphs!$D$2</f>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">B15</f>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -57728,30 +57728,30 @@
         <v>0</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="R15" s="0" t="n">
         <f aca="false">O15+P15+Q15</f>
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="false">T15+U15+V15</f>
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="Y15" s="0" t="e">
         <v>#VALUE!</v>
@@ -57786,11 +57786,11 @@
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">A16*Graphs!$D$2</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">B16</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -57819,30 +57819,30 @@
         <v>0</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="R16" s="0" t="n">
         <f aca="false">O16+P16+Q16</f>
-        <v>138</v>
+        <v>294</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="false">T16+U16+V16</f>
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="Y16" s="0" t="e">
         <v>#VALUE!</v>
@@ -57877,11 +57877,11 @@
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">A17*Graphs!$D$2</f>
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">B17</f>
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -57910,30 +57910,30 @@
         <v>0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">O17+P17+Q17</f>
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="false">T17+U17+V17</f>
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="Y17" s="0" t="e">
         <v>#VALUE!</v>
@@ -57968,11 +57968,11 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">A18*Graphs!$D$2</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">B18</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
@@ -58001,30 +58001,30 @@
         <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="R18" s="0" t="n">
         <f aca="false">O18+P18+Q18</f>
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="false">T18+U18+V18</f>
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="Y18" s="0" t="e">
         <v>#VALUE!</v>
@@ -58059,11 +58059,11 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">A19*Graphs!$D$2</f>
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">B19</f>
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -58092,30 +58092,30 @@
         <v>0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="R19" s="0" t="n">
         <f aca="false">O19+P19+Q19</f>
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="false">T19+U19+V19</f>
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="Y19" s="0" t="e">
         <v>#VALUE!</v>
@@ -58150,11 +58150,11 @@
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">A20*Graphs!$D$2</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">B20</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
@@ -58183,30 +58183,30 @@
         <v>0</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="R20" s="0" t="n">
         <f aca="false">O20+P20+Q20</f>
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="W20" s="0" t="n">
         <f aca="false">T20+U20+V20</f>
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="Y20" s="0" t="e">
         <v>#VALUE!</v>
@@ -58241,11 +58241,11 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">A21*Graphs!$D$2</f>
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">B21</f>
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -58274,30 +58274,30 @@
         <v>0</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
         <f aca="false">O21+P21+Q21</f>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0" t="n">
         <f aca="false">T21+U21+V21</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="0" t="e">
         <v>#VALUE!</v>
@@ -58332,11 +58332,11 @@
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">A22*Graphs!$D$2</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">B22</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -58365,30 +58365,30 @@
         <v>0</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
         <f aca="false">O22+P22+Q22</f>
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
         <f aca="false">T22+U22+V22</f>
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0" t="e">
         <v>#VALUE!</v>
@@ -58423,11 +58423,11 @@
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">A23*Graphs!$D$2</f>
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">B23</f>
-        <v>3250</v>
+        <v>6500</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -58456,30 +58456,30 @@
         <v>0</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
         <f aca="false">O23+P23+Q23</f>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0" t="n">
         <f aca="false">T23+U23+V23</f>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0" t="e">
         <v>#VALUE!</v>
@@ -58514,11 +58514,11 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">A24*Graphs!$D$2</f>
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">B24</f>
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -58547,30 +58547,30 @@
         <v>0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
         <f aca="false">O24+P24+Q24</f>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
         <f aca="false">T24+U24+V24</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0" t="e">
         <v>#VALUE!</v>
@@ -58605,11 +58605,11 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">A25*Graphs!$D$2</f>
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">B25</f>
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
@@ -58638,30 +58638,30 @@
         <v>0</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
         <f aca="false">O25+P25+Q25</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="W25" s="0" t="n">
         <f aca="false">T25+U25+V25</f>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0" t="e">
         <v>#VALUE!</v>
@@ -58696,11 +58696,11 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">A26*Graphs!$D$2</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">B26</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
@@ -58729,30 +58729,30 @@
         <v>0</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0" t="n">
         <f aca="false">O26+P26+Q26</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W26" s="0" t="n">
         <f aca="false">T26+U26+V26</f>
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0" t="e">
         <v>#VALUE!</v>
@@ -58787,11 +58787,11 @@
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">A27*Graphs!$D$2</f>
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">B27</f>
-        <v>4250</v>
+        <v>8500</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
@@ -58820,30 +58820,30 @@
         <v>0</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
         <f aca="false">O27+P27+Q27</f>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W27" s="0" t="n">
         <f aca="false">T27+U27+V27</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="0" t="e">
         <v>#VALUE!</v>
@@ -58878,11 +58878,11 @@
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">A28*Graphs!$D$2</f>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">B28</f>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -58911,30 +58911,30 @@
         <v>0</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
         <f aca="false">O28+P28+Q28</f>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0" t="n">
         <f aca="false">T28+U28+V28</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0" t="e">
         <v>#VALUE!</v>
@@ -58969,11 +58969,11 @@
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">A29*Graphs!$D$2</f>
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">B29</f>
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -59002,30 +59002,30 @@
         <v>0</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R29" s="0" t="n">
         <f aca="false">O29+P29+Q29</f>
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="W29" s="0" t="n">
         <f aca="false">T29+U29+V29</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="0" t="e">
         <v>#VALUE!</v>
@@ -59060,11 +59060,11 @@
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">A30*Graphs!$D$2</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">B30</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
@@ -59093,30 +59093,30 @@
         <v>0</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
         <f aca="false">O30+P30+Q30</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="0" t="n">
         <f aca="false">T30+U30+V30</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="0" t="e">
         <v>#VALUE!</v>
@@ -59233,7 +59233,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
